--- a/Result/LSTM Multi/Manufacturing/SGP.xlsx
+++ b/Result/LSTM Multi/Manufacturing/SGP.xlsx
@@ -716,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>21.81670188903809</v>
+        <v>22.05922508239746</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>21.61314582824707</v>
+        <v>21.56410217285156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>21.5609302520752</v>
+        <v>21.6391658782959</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>21.23271369934082</v>
+        <v>21.34563636779785</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>21.30125999450684</v>
+        <v>21.23960494995117</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>21.56046485900879</v>
+        <v>21.85768890380859</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>21.37946128845215</v>
+        <v>21.31138038635254</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>21.35723876953125</v>
+        <v>21.49084281921387</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>21.04252815246582</v>
+        <v>21.10087966918945</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>21.20802307128906</v>
+        <v>21.17238616943359</v>
       </c>
     </row>
   </sheetData>
